--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,37 +49,34 @@
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>shit</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -97,16 +94,31 @@
     <t>strong</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
@@ -115,58 +127,43 @@
     <t>friends</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>credit</t>
   </si>
   <si>
     <t>join</t>
@@ -181,39 +178,36 @@
     <t>care</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
@@ -223,22 +217,13 @@
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -602,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -721,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0.9545454545454546</v>
@@ -792,16 +777,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.702054794520548</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6551724137931034</v>
+        <v>0.6815068493150684</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,16 +927,16 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,37 +956,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5135135135135135</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>19</v>
       </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>18</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.36</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
         <v>23</v>
@@ -1063,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C11">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8359375</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3221476510067114</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8098591549295775</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3220338983050847</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8076923076923077</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,37 +1206,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3068783068783069</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>58</v>
       </c>
-      <c r="D14">
-        <v>58</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>131</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.796875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,7 +1256,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2467532467532468</v>
+        <v>0.2375</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -1289,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2333333333333333</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1746031746031746</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,69 +1374,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.09139784946236559</v>
-      </c>
-      <c r="C18">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <v>0.03</v>
-      </c>
-      <c r="F18">
-        <v>0.97</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>338</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K18">
-        <v>0.7416666666666667</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L18">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7358490566037735</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7254901960784313</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.723404255319149</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1541,47 +1502,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.725</v>
+      </c>
+      <c r="L22">
+        <v>116</v>
+      </c>
+      <c r="M22">
+        <v>116</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.71875</v>
-      </c>
-      <c r="L22">
-        <v>115</v>
-      </c>
-      <c r="M22">
-        <v>115</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6984126984126984</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1593,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6875</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1619,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6595744680851063</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1645,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6266318537859008</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L26">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1671,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.6129032258064516</v>
+        <v>0.5900783289817232</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1697,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.6111111111111112</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1728,7 +1689,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>0.5813953488372093</v>
@@ -1754,16 +1715,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1775,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5558823529411765</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L31">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M31">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1801,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.5280898876404494</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1827,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5111111111111111</v>
+        <v>0.55</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1853,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1879,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4949152542372882</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1905,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.4560669456066946</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L36">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1931,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.4523809523809524</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1957,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.4520547945205479</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1983,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.4307692307692308</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2009,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4230769230769231</v>
+        <v>0.40625</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2035,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.40625</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2061,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.3</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2087,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.1450381679389313</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2113,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>112</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.125</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2139,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.1148325358851675</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2165,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>370</v>
+        <v>836</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.06375838926174497</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L46">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2191,215 +2152,111 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>837</v>
+        <v>859</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.0581039755351682</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>308</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.04328523862375139</v>
+        <v>0.02618045815801777</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>862</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.03384615384615385</v>
+        <v>0.01452081316553727</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>628</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.0265282583621684</v>
+        <v>0.006887914840325611</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51">
-        <v>0.02476635514018691</v>
-      </c>
-      <c r="L51">
-        <v>53</v>
-      </c>
-      <c r="M51">
-        <v>56</v>
-      </c>
-      <c r="N51">
-        <v>0.95</v>
-      </c>
-      <c r="O51">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52">
-        <v>0.02171664943123061</v>
-      </c>
-      <c r="L52">
-        <v>21</v>
-      </c>
-      <c r="M52">
-        <v>22</v>
-      </c>
-      <c r="N52">
-        <v>0.95</v>
-      </c>
-      <c r="O52">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53">
-        <v>0.01450209474701901</v>
-      </c>
-      <c r="L53">
-        <v>45</v>
-      </c>
-      <c r="M53">
-        <v>49</v>
-      </c>
-      <c r="N53">
-        <v>0.92</v>
-      </c>
-      <c r="O53">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K54">
-        <v>0.008461297398934503</v>
-      </c>
-      <c r="L54">
-        <v>27</v>
-      </c>
-      <c r="M54">
-        <v>37</v>
-      </c>
-      <c r="N54">
-        <v>0.73</v>
-      </c>
-      <c r="O54">
-        <v>0.27</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3164</v>
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
